--- a/NodeMcu/cost and power calculations.xlsx
+++ b/NodeMcu/cost and power calculations.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>item</t>
   </si>
@@ -133,16 +133,27 @@
   </si>
   <si>
     <t>http://www.aliexpress.com/item/10pcs-L7805CV-L7805-7805-Voltage-Regulator-5V-1-5A-TO-220/32266509032.html</t>
+  </si>
+  <si>
+    <t>subtotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,13 +176,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,199 +464,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>B2*C2</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>C2*D2</f>
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A8" si="0">B3*C3</f>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">C3*D3</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.34</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>3.14</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1.57</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>18.605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>B13*C13</f>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>C17*D17</f>
         <v>2.4</v>
       </c>
-      <c r="B13">
+      <c r="C17">
         <v>2.4</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>B14*C14</f>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>C18*D18</f>
         <v>4.13</v>
       </c>
-      <c r="B14">
+      <c r="C18">
         <v>4.13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B17:B18)</f>
+        <v>6.5299999999999994</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/NodeMcu/cost and power calculations.xlsx
+++ b/NodeMcu/cost and power calculations.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>item</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>subtotal</t>
+  </si>
+  <si>
+    <t>smd resistors 10k</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/0603-10K-Ohm-5-1-10W-RoHS-Chip-Fixed-Resistor-SMD-Resistor-5000pcs-full-reel/32260947174.html</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +628,18 @@
       <c r="B9">
         <f>SUM(B2:B8)</f>
         <v>18.605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>8.99/5000</f>
+        <v>1.7980000000000001E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/NodeMcu/cost and power calculations.xlsx
+++ b/NodeMcu/cost and power calculations.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>item</t>
   </si>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>http://www.aliexpress.com/item/0603-10K-Ohm-5-1-10W-RoHS-Chip-Fixed-Resistor-SMD-Resistor-5000pcs-full-reel/32260947174.html</t>
+  </si>
+  <si>
+    <t>circuit board</t>
+  </si>
+  <si>
+    <t>3.3v regulator</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/10pcs-AMS1117-3-3-AMS1117-LM1117-1117-3-3V-1A-Voltage-Regulator/32409097011.html</t>
+  </si>
+  <si>
+    <t>micro usb connector</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/Short-term-Sacrifices-5pcs-USB-Micro-Type-B-5pin-Female-Jack-Connector-SMT-Surface-Mount/32349977492.html</t>
+  </si>
+  <si>
+    <t>micro usb cable</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/1-Meter-3-Feet-Ruggedized-Fabric-Braided-USB-Male-to-Micro-USB-Male-Data-Sync-Charging/32340270515.html</t>
+  </si>
+  <si>
+    <t>tft screen</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/Free-shipping-New-1-44-inch-LCD-color-screen-for-arduino-1-44-TFT-SPI-serial/32233128819.html</t>
+  </si>
+  <si>
+    <t>rgb led</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/1Pcs-3-Colour-RGB-SMD-LED-Board-Module-5050-Full-Color-LED-3-3-5V-for/2055617889.html</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
@@ -470,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +554,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">C3*D3</f>
+        <f t="shared" ref="B3:B15" si="0">C3*D3</f>
         <v>2.2400000000000002</v>
       </c>
       <c r="C3">
@@ -622,73 +658,193 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="C10">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C11">
+        <v>0.72</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C12">
+        <v>3.6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
-        <f>SUM(B2:B8)</f>
-        <v>18.605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>33.795000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17">
         <f>8.99/5000</f>
         <v>1.7980000000000001E-3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>C17*D17</f>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>C24*D24</f>
         <v>2.4</v>
       </c>
-      <c r="C17">
+      <c r="C24">
         <v>2.4</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>C18*D18</f>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>C25*D25</f>
         <v>4.13</v>
       </c>
-      <c r="C18">
+      <c r="C25">
         <v>4.13</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <f>SUM(B17:B18)</f>
+      <c r="B26">
+        <f>SUM(B24:B25)</f>
         <v>6.5299999999999994</v>
       </c>
     </row>
